--- a/_/SACT-PINMAP.xlsx
+++ b/_/SACT-PINMAP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Project\_New\SACT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Project\_New\SACT\GitHub\SACT\_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA52B98-054B-4C44-8266-75D239C08535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B1D9D0-8847-4CE5-8E32-F837815CC073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="195" windowWidth="19770" windowHeight="15285" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
+    <workbookView xWindow="9345" yWindow="195" windowWidth="19770" windowHeight="15285" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="616">
   <si>
     <t>H2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2111,6 +2111,242 @@
   <si>
     <t>DIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN_T16</t>
+  </si>
+  <si>
+    <t>PIN_V16</t>
+  </si>
+  <si>
+    <t>PIN_W17</t>
+  </si>
+  <si>
+    <t>PIN_AB16</t>
+  </si>
+  <si>
+    <t>PIN_W22</t>
+  </si>
+  <si>
+    <t>PIN_V22</t>
+  </si>
+  <si>
+    <t>PIN_W19</t>
+  </si>
+  <si>
+    <t>PIN_Y21</t>
+  </si>
+  <si>
+    <t>PIN_AB18</t>
+  </si>
+  <si>
+    <t>PIN_AB19</t>
+  </si>
+  <si>
+    <t>PIN_AA22</t>
+  </si>
+  <si>
+    <t>PIN_AB20</t>
+  </si>
+  <si>
+    <t>PIN_AA18</t>
+  </si>
+  <si>
+    <t>PIN_AA19</t>
+  </si>
+  <si>
+    <t>PIN_AA21</t>
+  </si>
+  <si>
+    <t>PIN_AA20</t>
+  </si>
+  <si>
+    <t>PIN_Y17</t>
+  </si>
+  <si>
+    <t>PIN_U17</t>
+  </si>
+  <si>
+    <t>PIN_V21</t>
+  </si>
+  <si>
+    <t>PIN_W21</t>
+  </si>
+  <si>
+    <t>PIN_AA16</t>
+  </si>
+  <si>
+    <t>PIN_U16</t>
+  </si>
+  <si>
+    <t>PIN_W20</t>
+  </si>
+  <si>
+    <t>PIN_Y22</t>
+  </si>
+  <si>
+    <t>E_C_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_C_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_C_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_C_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_C_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_C_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_C_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_C_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_C_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_C_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_C_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_C_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_C_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_C_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_C_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_W_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_W_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_W_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N_W_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_W_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_W_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_W_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_W_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|NORTH CROSS GREEN  |N_C_G|</t>
+  </si>
+  <si>
+    <t>|NORTH CROSS LEFT   |N_C_L|</t>
+  </si>
+  <si>
+    <t>|NORTH CROSS YELLOW |N_C_G|</t>
+  </si>
+  <si>
+    <t>|NORTH CROSS RED    |N_C_G|</t>
+  </si>
+  <si>
+    <t>|EAST CROSS GREEN   |E_C_G|</t>
+  </si>
+  <si>
+    <t>|EAST CROSS LEFT    |E_C_L|</t>
+  </si>
+  <si>
+    <t>|EAST CROSS YELLOW  |E_C_G|</t>
+  </si>
+  <si>
+    <t>|EAST CROSS RED     |E_C_G|</t>
+  </si>
+  <si>
+    <t>|SOUTH CROSS GREEN  |S_C_G|</t>
+  </si>
+  <si>
+    <t>|SOUTH CROSS LEFT   |S_C_L|</t>
+  </si>
+  <si>
+    <t>|SOUTH CROSS YELLOW |S_C_G|</t>
+  </si>
+  <si>
+    <t>|SOUTH CROSS RED    |S_C_G|</t>
+  </si>
+  <si>
+    <t>|WEST CROSS GREEN   |W_C_G|</t>
+  </si>
+  <si>
+    <t>|WEST CROSS LEFT    |W_C_L|</t>
+  </si>
+  <si>
+    <t>|WEST CROSS YELLOW  |W_C_G|</t>
+  </si>
+  <si>
+    <t>|WEST CROSS RED     |W_C_G|</t>
+  </si>
+  <si>
+    <t>|NORTH WALK GREEN   |N_W_G|</t>
+  </si>
+  <si>
+    <t>|NORTH WALK RED     |N_W_G|</t>
+  </si>
+  <si>
+    <t>|EAST WALK GREEN    |E_W_G|</t>
+  </si>
+  <si>
+    <t>|EAST WALK RED      |E_W_G|</t>
+  </si>
+  <si>
+    <t>|SOUTH WALK GREEN   |S_W_G|</t>
+  </si>
+  <si>
+    <t>|SOUTH WALK RED     |S_W_G|</t>
+  </si>
+  <si>
+    <t>|WEST WALK GREEN    |W_W_G|</t>
+  </si>
+  <si>
+    <t>|WEST WALK RED      |W_W_G|</t>
   </si>
 </sst>
 </file>
@@ -6646,8 +6882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FBA81-E400-4B1F-A61E-436757FC78DF}">
   <dimension ref="A2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6670,10 +6906,22 @@
         <v>400</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>545</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>573</v>
+      </c>
+      <c r="K2" t="s">
+        <v>549</v>
+      </c>
+      <c r="L2" t="s">
+        <v>586</v>
+      </c>
+      <c r="M2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -6687,10 +6935,22 @@
         <v>399</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>546</v>
       </c>
       <c r="H3" t="s">
         <v>239</v>
+      </c>
+      <c r="J3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" t="s">
+        <v>550</v>
+      </c>
+      <c r="L3" t="s">
+        <v>587</v>
+      </c>
+      <c r="M3" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -6704,10 +6964,22 @@
         <v>397</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>547</v>
       </c>
       <c r="H4" t="s">
         <v>435</v>
+      </c>
+      <c r="J4" t="s">
+        <v>576</v>
+      </c>
+      <c r="K4" t="s">
+        <v>552</v>
+      </c>
+      <c r="L4" t="s">
+        <v>584</v>
+      </c>
+      <c r="M4" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -6721,10 +6993,22 @@
         <v>398</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>548</v>
       </c>
       <c r="H5" t="s">
         <v>238</v>
+      </c>
+      <c r="J5" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" t="s">
+        <v>551</v>
+      </c>
+      <c r="L5" t="s">
+        <v>585</v>
+      </c>
+      <c r="M5" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -6738,7 +7022,19 @@
         <v>402</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>549</v>
+      </c>
+      <c r="J6" t="s">
+        <v>569</v>
+      </c>
+      <c r="K6" t="s">
+        <v>545</v>
+      </c>
+      <c r="L6" t="s">
+        <v>588</v>
+      </c>
+      <c r="M6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -6752,10 +7048,19 @@
         <v>401</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
+        <v>550</v>
+      </c>
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M7" t="s">
+        <v>566</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -6781,10 +7086,19 @@
         <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
+        <v>551</v>
+      </c>
+      <c r="J8" t="s">
+        <v>572</v>
+      </c>
+      <c r="K8" t="s">
+        <v>548</v>
+      </c>
+      <c r="L8" t="s">
+        <v>590</v>
+      </c>
+      <c r="M8" t="s">
+        <v>567</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -6810,10 +7124,19 @@
         <v>392</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9">
-        <v>-2</v>
+        <v>552</v>
+      </c>
+      <c r="J9" t="s">
+        <v>571</v>
+      </c>
+      <c r="K9" t="s">
+        <v>547</v>
+      </c>
+      <c r="L9" t="s">
+        <v>591</v>
+      </c>
+      <c r="M9" t="s">
+        <v>568</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -6836,7 +7159,13 @@
         <v>408</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>553</v>
+      </c>
+      <c r="J10" t="s">
+        <v>577</v>
+      </c>
+      <c r="K10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -6853,7 +7182,13 @@
         <v>407</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>554</v>
+      </c>
+      <c r="J11" t="s">
+        <v>578</v>
+      </c>
+      <c r="K11" t="s">
+        <v>554</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -6879,7 +7214,13 @@
         <v>405</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>555</v>
+      </c>
+      <c r="J12" t="s">
+        <v>579</v>
+      </c>
+      <c r="K12" t="s">
+        <v>556</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -6905,7 +7246,13 @@
         <v>406</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>556</v>
+      </c>
+      <c r="J13" t="s">
+        <v>577</v>
+      </c>
+      <c r="K13" t="s">
+        <v>555</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6931,7 +7278,13 @@
         <v>396</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>557</v>
+      </c>
+      <c r="J14" t="s">
+        <v>580</v>
+      </c>
+      <c r="K14" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -6945,7 +7298,13 @@
         <v>395</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>558</v>
+      </c>
+      <c r="J15" t="s">
+        <v>581</v>
+      </c>
+      <c r="K15" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -6959,10 +7318,16 @@
         <v>393</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="J16" t="s">
+        <v>583</v>
+      </c>
+      <c r="K16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>542</v>
       </c>
@@ -6973,10 +7338,16 @@
         <v>394</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="J17" t="s">
+        <v>582</v>
+      </c>
+      <c r="K17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>543</v>
       </c>
@@ -6987,18 +7358,18 @@
         <v>409</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>410</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>528</v>
       </c>
@@ -7009,10 +7380,10 @@
         <v>389</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>529</v>
       </c>
@@ -7023,10 +7394,16 @@
         <v>390</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="J21" t="s">
+        <v>592</v>
+      </c>
+      <c r="M21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>530</v>
       </c>
@@ -7037,10 +7414,16 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="J22" t="s">
+        <v>593</v>
+      </c>
+      <c r="M22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>531</v>
       </c>
@@ -7051,10 +7434,16 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="J23" t="s">
+        <v>594</v>
+      </c>
+      <c r="M23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>532</v>
       </c>
@@ -7065,10 +7454,16 @@
         <v>403</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="J24" t="s">
+        <v>595</v>
+      </c>
+      <c r="M24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>533</v>
       </c>
@@ -7079,18 +7474,30 @@
         <v>404</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="J25" t="s">
+        <v>596</v>
+      </c>
+      <c r="M25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>534</v>
       </c>
       <c r="C26" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>597</v>
+      </c>
+      <c r="M26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>535</v>
       </c>
@@ -7103,16 +7510,28 @@
       <c r="F27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>598</v>
+      </c>
+      <c r="M27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>373</v>
       </c>
       <c r="F28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>599</v>
+      </c>
+      <c r="M28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>299</v>
       </c>
@@ -7125,8 +7544,14 @@
       <c r="F29" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>600</v>
+      </c>
+      <c r="M29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>340</v>
       </c>
@@ -7139,8 +7564,14 @@
       <c r="F30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>601</v>
+      </c>
+      <c r="M30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>300</v>
       </c>
@@ -7153,8 +7584,14 @@
       <c r="F31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>602</v>
+      </c>
+      <c r="M31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>303</v>
       </c>
@@ -7167,8 +7604,14 @@
       <c r="F32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>603</v>
+      </c>
+      <c r="M32" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>301</v>
       </c>
@@ -7181,8 +7624,14 @@
       <c r="F33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>604</v>
+      </c>
+      <c r="M33" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>304</v>
       </c>
@@ -7195,8 +7644,14 @@
       <c r="F34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>605</v>
+      </c>
+      <c r="M34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>302</v>
       </c>
@@ -7209,16 +7664,28 @@
       <c r="F35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>606</v>
+      </c>
+      <c r="M35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>367</v>
       </c>
       <c r="F36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>607</v>
+      </c>
+      <c r="M36" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>422</v>
       </c>
@@ -7231,8 +7698,14 @@
       <c r="F37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>608</v>
+      </c>
+      <c r="M37" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>425</v>
       </c>
@@ -7245,8 +7718,14 @@
       <c r="F38" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>609</v>
+      </c>
+      <c r="M38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>421</v>
       </c>
@@ -7259,8 +7738,14 @@
       <c r="F39" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>610</v>
+      </c>
+      <c r="M39" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>429</v>
       </c>
@@ -7273,16 +7758,28 @@
       <c r="F40" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>611</v>
+      </c>
+      <c r="M40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>427</v>
       </c>
       <c r="C41" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>612</v>
+      </c>
+      <c r="M41" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>430</v>
       </c>
@@ -7295,8 +7792,14 @@
       <c r="F42" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>613</v>
+      </c>
+      <c r="M42" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>428</v>
       </c>
@@ -7309,8 +7812,14 @@
       <c r="F43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>614</v>
+      </c>
+      <c r="M43" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>431</v>
       </c>
@@ -7323,8 +7832,14 @@
       <c r="F44" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>615</v>
+      </c>
+      <c r="M44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>311</v>
       </c>
@@ -7338,7 +7853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>321</v>
       </c>
@@ -7352,7 +7867,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>424</v>
       </c>
@@ -7366,7 +7881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>319</v>
       </c>

--- a/_/SACT-PINMAP.xlsx
+++ b/_/SACT-PINMAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Project\_New\SACT\GitHub\SACT\_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B1D9D0-8847-4CE5-8E32-F837815CC073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7CF4F-03FD-4FAD-BA72-638BE3D8759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="195" windowWidth="19770" windowHeight="15285" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="648">
   <si>
     <t>H2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2347,6 +2347,102 @@
   </si>
   <si>
     <t>|WEST WALK RED      |W_W_G|</t>
+  </si>
+  <si>
+    <t>|A[3]|Slide Switch S7|</t>
+  </si>
+  <si>
+    <t>|A[2]|Slide Switch S6|</t>
+  </si>
+  <si>
+    <t>|A[1]|Slide Switch S5|</t>
+  </si>
+  <si>
+    <t>|A[0]|Slide Switch S4|</t>
+  </si>
+  <si>
+    <t>|B[3]|Slide Switch S3|</t>
+  </si>
+  <si>
+    <t>|B[2]|Slide Switch S2|</t>
+  </si>
+  <si>
+    <t>|B[1]|Slide Switch S1|</t>
+  </si>
+  <si>
+    <t>|B[0]|Slide Switch S0|</t>
+  </si>
+  <si>
+    <t>|C[3]|Button Switch SW7|</t>
+  </si>
+  <si>
+    <t>|C[2]|Button Switch SW6|</t>
+  </si>
+  <si>
+    <t>|C[1]|Button Switch SW5|</t>
+  </si>
+  <si>
+    <t>|C[0]|Button Switch SW4|</t>
+  </si>
+  <si>
+    <t>|D[3]|Button Switch SW3|</t>
+  </si>
+  <si>
+    <t>|D[2]|Button Switch SW2|</t>
+  </si>
+  <si>
+    <t>|D[1]|Button Switch SW1|</t>
+  </si>
+  <si>
+    <t>|D[0]|Button Switch SW0|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[7]|Segment 1|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[6]|Segment 2|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[5]|Segment 3|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[4]|Segment 4|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[3]|Segment 5|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[2]|Segment 6|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[1]|Segment 7|</t>
+  </si>
+  <si>
+    <t>|SEG_COM[0]|Segment 8|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[7]|Segment Data a|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[6]|Segment Data b|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[5]|Segment Data c|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[4]|Segment Data d|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[3]|Segment Data e|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[2]|Segment Data f|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[1]|Segment Data g|</t>
+  </si>
+  <si>
+    <t>|SEG_DATA[0]|Segment Data dp|</t>
   </si>
 </sst>
 </file>
@@ -6882,8 +6978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FBA81-E400-4B1F-A61E-436757FC78DF}">
   <dimension ref="A2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:M44"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37:R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7327,7 +7423,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>542</v>
       </c>
@@ -7347,7 +7443,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>543</v>
       </c>
@@ -7361,7 +7457,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>410</v>
       </c>
@@ -7369,7 +7465,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>528</v>
       </c>
@@ -7383,7 +7479,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>529</v>
       </c>
@@ -7402,8 +7498,14 @@
       <c r="M21" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>616</v>
+      </c>
+      <c r="R21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>530</v>
       </c>
@@ -7422,8 +7524,14 @@
       <c r="M22" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>617</v>
+      </c>
+      <c r="R22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>531</v>
       </c>
@@ -7442,8 +7550,14 @@
       <c r="M23" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>618</v>
+      </c>
+      <c r="R23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>532</v>
       </c>
@@ -7462,8 +7576,14 @@
       <c r="M24" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>619</v>
+      </c>
+      <c r="R24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>533</v>
       </c>
@@ -7482,8 +7602,14 @@
       <c r="M25" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>620</v>
+      </c>
+      <c r="R25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>534</v>
       </c>
@@ -7496,8 +7622,14 @@
       <c r="M26" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>621</v>
+      </c>
+      <c r="R26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>535</v>
       </c>
@@ -7516,8 +7648,14 @@
       <c r="M27" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>622</v>
+      </c>
+      <c r="R27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>373</v>
       </c>
@@ -7530,8 +7668,14 @@
       <c r="M28" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>623</v>
+      </c>
+      <c r="R28" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>299</v>
       </c>
@@ -7550,8 +7694,14 @@
       <c r="M29" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>624</v>
+      </c>
+      <c r="R29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>340</v>
       </c>
@@ -7570,8 +7720,14 @@
       <c r="M30" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>625</v>
+      </c>
+      <c r="R30" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>300</v>
       </c>
@@ -7590,8 +7746,14 @@
       <c r="M31" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>626</v>
+      </c>
+      <c r="R31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>303</v>
       </c>
@@ -7610,8 +7772,14 @@
       <c r="M32" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>627</v>
+      </c>
+      <c r="R32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>301</v>
       </c>
@@ -7630,8 +7798,14 @@
       <c r="M33" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>628</v>
+      </c>
+      <c r="R33" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>304</v>
       </c>
@@ -7650,8 +7824,14 @@
       <c r="M34" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>629</v>
+      </c>
+      <c r="R34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>302</v>
       </c>
@@ -7670,8 +7850,14 @@
       <c r="M35" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>630</v>
+      </c>
+      <c r="R35" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>367</v>
       </c>
@@ -7684,8 +7870,14 @@
       <c r="M36" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O36" t="s">
+        <v>631</v>
+      </c>
+      <c r="R36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>422</v>
       </c>
@@ -7704,8 +7896,14 @@
       <c r="M37" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>632</v>
+      </c>
+      <c r="R37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>425</v>
       </c>
@@ -7724,8 +7922,14 @@
       <c r="M38" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O38" t="s">
+        <v>633</v>
+      </c>
+      <c r="R38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>421</v>
       </c>
@@ -7744,8 +7948,14 @@
       <c r="M39" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O39" t="s">
+        <v>634</v>
+      </c>
+      <c r="R39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>429</v>
       </c>
@@ -7764,8 +7974,14 @@
       <c r="M40" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O40" t="s">
+        <v>635</v>
+      </c>
+      <c r="R40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>427</v>
       </c>
@@ -7778,8 +7994,14 @@
       <c r="M41" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O41" t="s">
+        <v>636</v>
+      </c>
+      <c r="R41" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>430</v>
       </c>
@@ -7798,8 +8020,14 @@
       <c r="M42" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O42" t="s">
+        <v>637</v>
+      </c>
+      <c r="R42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>428</v>
       </c>
@@ -7818,8 +8046,14 @@
       <c r="M43" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O43" t="s">
+        <v>638</v>
+      </c>
+      <c r="R43" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>431</v>
       </c>
@@ -7838,8 +8072,14 @@
       <c r="M44" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>639</v>
+      </c>
+      <c r="R44" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>311</v>
       </c>
@@ -7852,8 +8092,14 @@
       <c r="F45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O45" t="s">
+        <v>640</v>
+      </c>
+      <c r="R45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>321</v>
       </c>
@@ -7866,8 +8112,14 @@
       <c r="F46" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O46" t="s">
+        <v>641</v>
+      </c>
+      <c r="R46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>424</v>
       </c>
@@ -7880,8 +8132,14 @@
       <c r="F47" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O47" t="s">
+        <v>642</v>
+      </c>
+      <c r="R47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>319</v>
       </c>
@@ -7894,8 +8152,14 @@
       <c r="F48" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="O48" t="s">
+        <v>643</v>
+      </c>
+      <c r="R48" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>423</v>
       </c>
@@ -7908,8 +8172,14 @@
       <c r="F49" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="O49" t="s">
+        <v>644</v>
+      </c>
+      <c r="R49" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>318</v>
       </c>
@@ -7922,8 +8192,14 @@
       <c r="F50" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>645</v>
+      </c>
+      <c r="R50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>276</v>
       </c>
@@ -7936,8 +8212,14 @@
       <c r="F51" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="O51" t="s">
+        <v>646</v>
+      </c>
+      <c r="R51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>317</v>
       </c>
@@ -7950,8 +8232,14 @@
       <c r="F52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="O52" t="s">
+        <v>647</v>
+      </c>
+      <c r="R52" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>385</v>
       </c>
@@ -7959,7 +8247,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>347</v>
       </c>
@@ -7967,7 +8255,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>350</v>
       </c>
@@ -7981,7 +8269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>343</v>
       </c>
@@ -7995,7 +8283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>346</v>
       </c>
@@ -8009,7 +8297,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>342</v>
       </c>
@@ -8023,7 +8311,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>345</v>
       </c>
@@ -8037,7 +8325,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>349</v>
       </c>
@@ -8051,7 +8339,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>352</v>
       </c>
@@ -8065,7 +8353,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>341</v>
       </c>
@@ -8079,7 +8367,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>344</v>
       </c>
@@ -8093,7 +8381,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>348</v>
       </c>

--- a/_/SACT-PINMAP.xlsx
+++ b/_/SACT-PINMAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Project\_New\SACT\GitHub\SACT\_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA7CF4F-03FD-4FAD-BA72-638BE3D8759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A0931-686E-43B7-BCF6-98E0D5AD0639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="659">
   <si>
     <t>H2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2443,6 +2443,43 @@
   </si>
   <si>
     <t>|SEG_DATA[0]|Segment Data dp|</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>SEGA_SCAN5</t>
+  </si>
+  <si>
+    <t>SEGA_SCAN4</t>
+  </si>
+  <si>
+    <t>CLED_B0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLED_G0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLED_R0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEND_LED0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6978,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FBA81-E400-4B1F-A61E-436757FC78DF}">
   <dimension ref="A2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37:R52"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6993,7 +7030,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
         <v>445</v>
@@ -7022,7 +7059,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
         <v>446</v>
@@ -7051,7 +7088,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>447</v>
@@ -7080,7 +7117,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>282</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
         <v>448</v>
@@ -7109,7 +7146,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>325</v>
+        <v>649</v>
       </c>
       <c r="C6" t="s">
         <v>449</v>
@@ -7135,7 +7172,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>283</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
         <v>450</v>
@@ -7173,7 +7210,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>327</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
         <v>451</v>
@@ -7211,7 +7248,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>285</v>
+        <v>652</v>
       </c>
       <c r="C9" t="s">
         <v>452</v>
@@ -7677,7 +7714,7 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
         <v>469</v>
@@ -7729,7 +7766,7 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" t="s">
         <v>471</v>
@@ -7755,7 +7792,7 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
         <v>472</v>
@@ -7781,7 +7818,7 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C33" t="s">
         <v>473</v>
@@ -7807,7 +7844,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
         <v>474</v>
@@ -7833,7 +7870,7 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" t="s">
         <v>475</v>
@@ -8081,7 +8118,7 @@
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
         <v>484</v>
@@ -8101,7 +8138,7 @@
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
         <v>485</v>
@@ -8121,7 +8158,7 @@
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>424</v>
+        <v>653</v>
       </c>
       <c r="C47" t="s">
         <v>486</v>
@@ -8141,7 +8178,7 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>319</v>
+        <v>654</v>
       </c>
       <c r="C48" t="s">
         <v>487</v>
@@ -8161,7 +8198,7 @@
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
       <c r="C49" t="s">
         <v>488</v>
@@ -8181,7 +8218,7 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="C50" t="s">
         <v>489</v>
@@ -8201,7 +8238,7 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
         <v>490</v>
@@ -8221,7 +8258,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C52" t="s">
         <v>491</v>
@@ -8249,7 +8286,7 @@
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C54" t="s">
         <v>492</v>
@@ -8271,7 +8308,7 @@
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C56" t="s">
         <v>494</v>
@@ -8285,7 +8322,7 @@
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>346</v>
+        <v>655</v>
       </c>
       <c r="C57" t="s">
         <v>495</v>
@@ -8299,7 +8336,7 @@
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C58" t="s">
         <v>496</v>
@@ -8327,7 +8364,7 @@
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C60" t="s">
         <v>498</v>
@@ -8341,7 +8378,7 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>352</v>
+        <v>656</v>
       </c>
       <c r="C61" t="s">
         <v>499</v>
@@ -8355,7 +8392,7 @@
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C62" t="s">
         <v>500</v>
@@ -8383,7 +8420,7 @@
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C64" t="s">
         <v>502</v>
@@ -8397,7 +8434,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>351</v>
+        <v>657</v>
       </c>
       <c r="C65" t="s">
         <v>503</v>
@@ -8419,42 +8456,42 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C68" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
@@ -8467,42 +8504,42 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="C75" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
@@ -8555,7 +8592,7 @@
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C87" t="s">
         <v>521</v>
@@ -8563,7 +8600,7 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C88" t="s">
         <v>522</v>
@@ -8571,7 +8608,7 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C89" t="s">
         <v>523</v>
@@ -8579,7 +8616,7 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C90" t="s">
         <v>524</v>
@@ -8587,7 +8624,7 @@
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s">
         <v>525</v>
@@ -8595,7 +8632,7 @@
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C92" t="s">
         <v>526</v>
@@ -8603,15 +8640,15 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>416</v>
+        <v>658</v>
       </c>
       <c r="C93" t="s">
         <v>527</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:C129">
-    <sortCondition ref="B10:B129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B70:C77">
+    <sortCondition ref="C70:C77"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_/SACT-PINMAP.xlsx
+++ b/_/SACT-PINMAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_Project\_New\SACT\GitHub\SACT\_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A0931-686E-43B7-BCF6-98E0D5AD0639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7DCFB-9715-4B43-97EF-9BF8C5CA0509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{C89202BF-2D40-484F-95D7-8039D35E7903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="660">
   <si>
     <t>H2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2479,6 +2479,10 @@
   </si>
   <si>
     <t>VEND_LED0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7015,8 +7019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FBA81-E400-4B1F-A61E-436757FC78DF}">
   <dimension ref="A2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7044,6 +7048,9 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" t="s">
+        <v>659</v>
+      </c>
       <c r="J2" t="s">
         <v>573</v>
       </c>
@@ -7694,10 +7701,10 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
         <v>599</v>
@@ -7720,10 +7727,10 @@
         <v>469</v>
       </c>
       <c r="E29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="J29" t="s">
         <v>600</v>
@@ -7746,10 +7753,10 @@
         <v>470</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="J30" t="s">
         <v>601</v>
@@ -7772,10 +7779,10 @@
         <v>471</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
         <v>602</v>
@@ -7798,10 +7805,10 @@
         <v>472</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
         <v>603</v>
@@ -7824,10 +7831,10 @@
         <v>473</v>
       </c>
       <c r="E33" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="J33" t="s">
         <v>604</v>
@@ -7850,10 +7857,10 @@
         <v>474</v>
       </c>
       <c r="E34" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
         <v>605</v>
@@ -7876,10 +7883,10 @@
         <v>475</v>
       </c>
       <c r="E35" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
         <v>606</v>
@@ -7896,10 +7903,10 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="J36" t="s">
         <v>607</v>
@@ -7922,10 +7929,10 @@
         <v>476</v>
       </c>
       <c r="E37" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="J37" t="s">
         <v>608</v>
@@ -7948,10 +7955,10 @@
         <v>477</v>
       </c>
       <c r="E38" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="J38" t="s">
         <v>609</v>
@@ -7974,10 +7981,10 @@
         <v>478</v>
       </c>
       <c r="E39" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="J39" t="s">
         <v>610</v>
@@ -8647,8 +8654,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B70:C77">
-    <sortCondition ref="C70:C77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E30:F39">
+    <sortCondition descending="1" ref="E30:E39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
